--- a/Sprint-3/Sprint_2 Burndown-Backlog.xlsx
+++ b/Sprint-3/Sprint_2 Burndown-Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Adocao\adocao\Sprint-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breno\Downloads\adocao4\Sprint-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Breno Burndown" sheetId="4" r:id="rId5"/>
     <sheet name="Alexandre Burndown" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="64">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -111,22 +111,10 @@
     <t>Definir campos e botões para o cadastro</t>
   </si>
   <si>
-    <t>Tratar Eventos dos Campos</t>
-  </si>
-  <si>
     <t>Tratar Eventos dos Botões do Cadastro</t>
   </si>
   <si>
     <t>Tratar Eventos dos Botões do Menu</t>
-  </si>
-  <si>
-    <t>Criar Classe Animal</t>
-  </si>
-  <si>
-    <t>Criar Banco de Dados</t>
-  </si>
-  <si>
-    <t>Armazenar dados dos campos no BD</t>
   </si>
   <si>
     <t>Danilo</t>
@@ -231,11 +219,23 @@
   <si>
     <t>Estudo Modelo Espiral e Reuso</t>
   </si>
+  <si>
+    <t>Usuário que desejam adotar um animal, poderão ver uma lista de animais disponível para adoção</t>
+  </si>
+  <si>
+    <t>Criar Classe ListaAnimal</t>
+  </si>
+  <si>
+    <t>Integrar a classe ListaAnimal ao Menu Principal</t>
+  </si>
+  <si>
+    <t>Criar visualização da Lista de Animais</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$R$ -416]#,##0.00"/>
@@ -525,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -601,6 +601,63 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,7 +667,7 @@
     <xf numFmtId="4" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -631,6 +688,24 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -643,83 +718,14 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="222">
+  <dxfs count="231">
     <dxf>
       <fill>
         <patternFill>
@@ -766,6 +772,129 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -3904,7 +4033,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -3967,7 +4096,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -4023,37 +4152,37 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>41.8</c:v>
+                  <c:v>46.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.574999999999996</c:v>
+                  <c:v>40.512499999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.349999999999994</c:v>
+                  <c:v>34.724999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.124999999999993</c:v>
+                  <c:v>28.937499999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.899999999999991</c:v>
+                  <c:v>23.149999999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.674999999999992</c:v>
+                  <c:v>17.36249999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.449999999999992</c:v>
+                  <c:v>11.57499999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2249999999999925</c:v>
+                  <c:v>5.7874999999999908</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7.1054273576010019E-15</c:v>
+                  <c:v>-8.8817841970012523E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B25F-4BA6-B823-6B646DCDECAB}"/>
             </c:ext>
@@ -4100,7 +4229,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -4156,37 +4285,37 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>41.8</c:v>
+                  <c:v>46.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.8</c:v>
+                  <c:v>46.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.949999999999996</c:v>
+                  <c:v>43.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.449999999999996</c:v>
+                  <c:v>39.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.249999999999996</c:v>
+                  <c:v>35.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.449999999999996</c:v>
+                  <c:v>29.349999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.999999999999996</c:v>
+                  <c:v>25.349999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.199999999999996</c:v>
+                  <c:v>21.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.399999999999995</c:v>
+                  <c:v>17.849999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B25F-4BA6-B823-6B646DCDECAB}"/>
             </c:ext>
@@ -4418,7 +4547,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -4471,7 +4600,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -4557,7 +4686,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-38B3-4059-8152-72407AF7869D}"/>
             </c:ext>
@@ -4604,7 +4733,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -4690,7 +4819,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-38B3-4059-8152-72407AF7869D}"/>
             </c:ext>
@@ -4758,6 +4887,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4848,6 +4978,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4892,6 +5023,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4919,7 +5051,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -4972,7 +5104,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -5058,7 +5190,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7027-4089-A471-E33CFB343F03}"/>
             </c:ext>
@@ -5105,7 +5237,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -5167,31 +5299,31 @@
                   <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.65</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.65</c:v>
+                  <c:v>10.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.95</c:v>
+                  <c:v>9.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6500000000000004</c:v>
+                  <c:v>5.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2</c:v>
+                  <c:v>3.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9000000000000004</c:v>
+                  <c:v>1.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1000000000000005</c:v>
+                  <c:v>-0.94999999999999929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7027-4089-A471-E33CFB343F03}"/>
             </c:ext>
@@ -5259,6 +5391,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5349,6 +5482,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5393,6 +5527,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5420,7 +5555,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -5473,7 +5608,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -5559,7 +5694,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-52E3-40F9-BCD1-53B9BF061B4D}"/>
             </c:ext>
@@ -5606,7 +5741,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -5692,7 +5827,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-52E3-40F9-BCD1-53B9BF061B4D}"/>
             </c:ext>
@@ -5760,6 +5895,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5850,6 +5986,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5894,6 +6031,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5995,15 +6133,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>127800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>70650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>437400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:colOff>380250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>94710</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6063,7 +6201,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6101,7 +6239,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6173,7 +6311,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6338,10 +6476,10 @@
   <sheetPr>
     <tabColor rgb="FF38761D"/>
   </sheetPr>
-  <dimension ref="A1:AB1048570"/>
+  <dimension ref="A1:AB1048558"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView windowProtection="1" showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6358,16 +6496,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
@@ -6392,27 +6530,27 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="44">
         <v>8</v>
       </c>
       <c r="J2" s="3"/>
@@ -6436,10 +6574,10 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="64" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="36" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -6451,8 +6589,8 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -6474,26 +6612,26 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
-        <v>48</v>
+      <c r="A4" s="45" t="s">
+        <v>44</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="51">
+        <v>28</v>
+      </c>
+      <c r="D4" s="28">
         <v>1</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="46">
         <f>SUM(D4:D12)</f>
         <v>11.8</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="28">
         <v>0.75</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="48">
         <f>SUM(F4:F12)</f>
         <v>10.173299999999999</v>
       </c>
@@ -6520,21 +6658,21 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
-      <c r="B5" s="47" t="s">
-        <v>50</v>
+      <c r="A5" s="43"/>
+      <c r="B5" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="51">
+        <v>28</v>
+      </c>
+      <c r="D5" s="28">
         <v>1</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="51">
+      <c r="E5" s="47"/>
+      <c r="F5" s="28">
         <v>0.83330000000000004</v>
       </c>
-      <c r="G5" s="50"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="22" t="s">
         <v>10</v>
       </c>
@@ -6559,21 +6697,21 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="51">
+        <v>28</v>
+      </c>
+      <c r="D6" s="28">
         <v>0.5</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="51">
+      <c r="E6" s="47"/>
+      <c r="F6" s="28">
         <v>0.4</v>
       </c>
-      <c r="G6" s="50"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="22" t="s">
         <v>10</v>
       </c>
@@ -6597,21 +6735,21 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="51">
+        <v>28</v>
+      </c>
+      <c r="D7" s="28">
         <v>2</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="51">
+      <c r="E7" s="47"/>
+      <c r="F7" s="28">
         <v>1.25</v>
       </c>
-      <c r="G7" s="50"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="22" t="s">
         <v>10</v>
       </c>
@@ -6635,21 +6773,21 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="51">
+        <v>28</v>
+      </c>
+      <c r="D8" s="28">
         <v>0.3</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="51">
+      <c r="E8" s="47"/>
+      <c r="F8" s="28">
         <v>0.5</v>
       </c>
-      <c r="G8" s="50"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="22" t="s">
         <v>10</v>
       </c>
@@ -6673,21 +6811,21 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="51">
+        <v>28</v>
+      </c>
+      <c r="D9" s="28">
         <v>1</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="51">
+      <c r="E9" s="47"/>
+      <c r="F9" s="28">
         <v>1.59</v>
       </c>
-      <c r="G9" s="50"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="22" t="s">
         <v>10</v>
       </c>
@@ -6713,21 +6851,21 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="51">
+        <v>28</v>
+      </c>
+      <c r="D10" s="28">
         <v>4</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="51">
+      <c r="E10" s="47"/>
+      <c r="F10" s="28">
         <v>3.4</v>
       </c>
-      <c r="G10" s="50"/>
+      <c r="G10" s="49"/>
       <c r="H10" s="22" t="s">
         <v>10</v>
       </c>
@@ -6753,21 +6891,21 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="51">
+        <v>28</v>
+      </c>
+      <c r="D11" s="28">
         <v>1</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="51">
+      <c r="E11" s="47"/>
+      <c r="F11" s="28">
         <v>0.7</v>
       </c>
-      <c r="G11" s="50"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="23" t="s">
         <v>10</v>
       </c>
@@ -6793,286 +6931,359 @@
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="53">
+        <v>53</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="30">
         <v>1</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="53">
+      <c r="E12" s="47"/>
+      <c r="F12" s="30">
         <v>0.75</v>
       </c>
-      <c r="G12" s="50"/>
+      <c r="G12" s="49"/>
       <c r="H12" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="53">
-        <v>2</v>
-      </c>
-      <c r="E13" s="60">
-        <f>SUM(D13:D27)</f>
-        <v>30</v>
-      </c>
-      <c r="F13" s="53">
-        <v>2</v>
-      </c>
-      <c r="G13" s="60">
-        <f>SUM(F13:F27)</f>
+      <c r="A13" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="30">
+        <v>1</v>
+      </c>
+      <c r="E13" s="49">
+        <f>SUM(D13:D15)</f>
+        <v>4.5</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="49">
+        <f>SUM(F13:F15)</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="53">
-        <v>2</v>
-      </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="22"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="30">
+        <v>0.45</v>
+      </c>
+      <c r="G14" s="49"/>
+      <c r="H14" s="22" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="59">
+      <c r="A15" s="43"/>
+      <c r="B15" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="30">
         <v>2</v>
       </c>
-      <c r="E15" s="61"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="54" t="s">
+      <c r="E15" s="66"/>
+      <c r="F15" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="G15" s="66"/>
+      <c r="H15" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="59">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="30">
         <v>2</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="63">
+      <c r="E16" s="40">
+        <f>SUM(D16:D30)</f>
+        <v>30</v>
+      </c>
+      <c r="F16" s="30">
         <v>2</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="54"/>
+      <c r="G16" s="40">
+        <f>SUM(F16:F30)</f>
+        <v>20</v>
+      </c>
+      <c r="H16" s="22"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="59">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="43"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="30">
         <v>2</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="54"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="30">
+        <v>2</v>
+      </c>
+      <c r="G17" s="41"/>
+      <c r="H17" s="22"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="59">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="43"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="34">
         <v>2</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="54"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="31" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="59">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="43"/>
+      <c r="B19" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="34">
         <v>2</v>
       </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="63">
+      <c r="E19" s="41"/>
+      <c r="F19" s="35">
         <v>2</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="54" t="s">
+      <c r="G19" s="41"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="43"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="34">
+        <v>2</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="35">
+        <v>2</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="43"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="34">
+        <v>2</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="43"/>
+      <c r="B22" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="34">
+        <v>2</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="35">
+        <v>2</v>
+      </c>
+      <c r="G22" s="41"/>
+      <c r="H22" s="31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="59">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="43"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="34">
         <v>2</v>
       </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="54"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="35">
+        <v>2</v>
+      </c>
+      <c r="G23" s="41"/>
+      <c r="H23" s="31"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="59">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="43"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="34">
         <v>2</v>
       </c>
-      <c r="E21" s="61"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="54"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="31"/>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
-      <c r="B22" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="59">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="43"/>
+      <c r="B25" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="34">
         <v>2</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="63">
+      <c r="E25" s="41"/>
+      <c r="F25" s="35">
         <v>2</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="54" t="s">
+      <c r="G25" s="41"/>
+      <c r="H25" s="31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="59">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="43"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="34">
         <v>2</v>
       </c>
-      <c r="E23" s="61"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="54"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="35">
+        <v>2</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="31"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="59">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="43"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="34">
         <v>2</v>
       </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="54"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="31"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
-      <c r="B25" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="59">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="43"/>
+      <c r="B28" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="34">
         <v>2</v>
       </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="63">
+      <c r="E28" s="41"/>
+      <c r="F28" s="35">
         <v>2</v>
       </c>
-      <c r="G25" s="61"/>
-      <c r="H25" s="54" t="s">
+      <c r="G28" s="41"/>
+      <c r="H28" s="31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="59">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="43"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="34">
         <v>2</v>
       </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="54"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="35">
+        <v>2</v>
+      </c>
+      <c r="G29" s="41"/>
+      <c r="H29" s="31"/>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="59">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="43"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="34">
         <v>2</v>
       </c>
-      <c r="E27" s="61"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="54"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="31"/>
     </row>
-    <row r="1048566" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048554" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048555" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048556" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048557" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048558" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="E13:E27"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A13:A27"/>
-    <mergeCell ref="G13:G27"/>
+  <mergeCells count="22">
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="A16:A30"/>
+    <mergeCell ref="G16:G30"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
@@ -7084,19 +7295,27 @@
     <mergeCell ref="A4:A12"/>
     <mergeCell ref="E4:E12"/>
     <mergeCell ref="G4:G12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="E16:E30"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I3">
-    <cfRule type="expression" dxfId="221" priority="2">
+    <cfRule type="expression" dxfId="230" priority="2">
       <formula>LEN(TRIM(I1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I3">
-    <cfRule type="notContainsText" dxfId="220" priority="3" operator="notContains" text="676766676ppppp"/>
+    <cfRule type="notContainsText" dxfId="229" priority="3" operator="notContains" text="676766676ppppp"/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E13 G13" formulaRange="1"/>
+    <ignoredError sqref="E16 G16 E13 G13" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7131,20 +7350,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -7203,40 +7422,40 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
+      <c r="A3" s="52">
         <v>8</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="I3" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="J3" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="53" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="8"/>
@@ -7248,18 +7467,18 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -7274,47 +7493,47 @@
       </c>
       <c r="B5" s="13">
         <f>SUM('Sprint Backlog'!D:D)</f>
-        <v>41.8</v>
+        <v>46.3</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>36.574999999999996</v>
+        <v>40.512499999999996</v>
       </c>
       <c r="D5" s="14">
         <f t="shared" si="1"/>
-        <v>31.349999999999994</v>
+        <v>34.724999999999994</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" si="1"/>
-        <v>26.124999999999993</v>
+        <v>28.937499999999993</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="1"/>
-        <v>20.899999999999991</v>
+        <v>23.149999999999991</v>
       </c>
       <c r="G5" s="14">
         <f t="shared" si="1"/>
-        <v>15.674999999999992</v>
+        <v>17.36249999999999</v>
       </c>
       <c r="H5" s="14">
         <f t="shared" si="1"/>
-        <v>10.449999999999992</v>
+        <v>11.57499999999999</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="1"/>
-        <v>5.2249999999999925</v>
+        <v>5.7874999999999908</v>
       </c>
       <c r="J5" s="14">
         <f t="shared" si="1"/>
-        <v>-7.1054273576010019E-15</v>
+        <v>-8.8817841970012523E-15</v>
       </c>
       <c r="K5" s="14">
         <f>SUM(C5:J5)</f>
-        <v>146.29999999999995</v>
+        <v>162.04999999999995</v>
       </c>
       <c r="L5" s="14">
         <f>K5/A$3</f>
-        <v>18.287499999999994</v>
+        <v>20.256249999999994</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -7330,47 +7549,47 @@
       </c>
       <c r="B6" s="13">
         <f>B5</f>
-        <v>41.8</v>
+        <v>46.3</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>41.8</v>
+        <v>46.3</v>
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>38.949999999999996</v>
+        <v>43.8</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>34.449999999999996</v>
+        <v>39.849999999999994</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>28.249999999999996</v>
+        <v>35.849999999999994</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>24.449999999999996</v>
+        <v>29.349999999999994</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>21.999999999999996</v>
+        <v>25.349999999999994</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>20.199999999999996</v>
+        <v>21.849999999999994</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>17.399999999999995</v>
+        <v>17.849999999999994</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>227.49999999999997</v>
+        <v>260.19999999999993</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>28.437499999999996</v>
+        <v>32.524999999999991</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -7408,18 +7627,18 @@
       <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -7434,7 +7653,7 @@
       </c>
       <c r="B9" s="17">
         <f>B5/A3</f>
-        <v>5.2249999999999996</v>
+        <v>5.7874999999999996</v>
       </c>
       <c r="C9" s="17">
         <f t="shared" ref="C9:K9" si="3">SUM(C10:C12)</f>
@@ -7442,39 +7661,39 @@
       </c>
       <c r="D9" s="17">
         <f t="shared" si="3"/>
-        <v>2.85</v>
+        <v>2.5</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="3"/>
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="3"/>
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="3"/>
-        <v>2.4500000000000002</v>
+        <v>4</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="3"/>
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="3"/>
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" si="3"/>
-        <v>24.4</v>
+        <v>28.45</v>
       </c>
       <c r="L9" s="17">
         <f>K9/A$3</f>
-        <v>3.05</v>
+        <v>3.5562499999999999</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -7486,7 +7705,7 @@
     </row>
     <row r="10" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B10" s="19">
         <f>'Danilo Burndown'!B9</f>
@@ -7542,7 +7761,7 @@
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" s="19">
         <f>'Alexandre Burndown'!B9</f>
@@ -7554,39 +7773,39 @@
       </c>
       <c r="D11" s="14">
         <f>'Breno Burndown'!D9</f>
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="14">
         <f>'Breno Burndown'!E9</f>
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="F11" s="14">
         <f>'Breno Burndown'!F9</f>
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="G11" s="14">
         <f>'Breno Burndown'!G9</f>
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="14">
         <f>'Breno Burndown'!H9</f>
-        <v>0.45</v>
+        <v>2</v>
       </c>
       <c r="I11" s="14">
         <f>'Breno Burndown'!I9</f>
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="14">
         <f>'Breno Burndown'!J9</f>
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="K11" s="14">
         <f>SUM(C11:J11)</f>
-        <v>8.4</v>
+        <v>12.45</v>
       </c>
       <c r="L11" s="14">
         <f>K11/A$3</f>
-        <v>1.05</v>
+        <v>1.5562499999999999</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -7598,7 +7817,7 @@
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B12" s="20">
         <f>'Breno Burndown'!B9</f>
@@ -7678,1015 +7897,1015 @@
     <mergeCell ref="L3:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="219" priority="2">
+    <cfRule type="expression" dxfId="228" priority="2">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="218" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="217" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="226" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="expression" dxfId="216" priority="5">
+    <cfRule type="expression" dxfId="225" priority="5">
       <formula>LEN(TRIM(B10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="notContainsText" dxfId="215" priority="6" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="224" priority="6" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="214" priority="7">
+    <cfRule type="expression" dxfId="223" priority="7">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="213" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="212" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="221" priority="9" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="211" priority="10">
+    <cfRule type="expression" dxfId="220" priority="10">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="210" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="209" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="218" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="208" priority="13">
+    <cfRule type="expression" dxfId="217" priority="13">
       <formula>LEN(TRIM(K6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="207" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="206" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="215" priority="15" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="205" priority="16">
+    <cfRule type="expression" dxfId="214" priority="16">
       <formula>LEN(TRIM(K6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="204" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="203" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="212" priority="18" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="202" priority="19">
+    <cfRule type="expression" dxfId="211" priority="19">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="201" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="200" priority="21" operator="notEqual">
+    <cfRule type="cellIs" dxfId="209" priority="21" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="199" priority="22">
+    <cfRule type="expression" dxfId="208" priority="22">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="198" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="197" priority="24" operator="notEqual">
+    <cfRule type="cellIs" dxfId="206" priority="24" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="196" priority="25">
+    <cfRule type="expression" dxfId="205" priority="25">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="195" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="194" priority="27" operator="notEqual">
+    <cfRule type="cellIs" dxfId="203" priority="27" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="193" priority="28">
+    <cfRule type="expression" dxfId="202" priority="28">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="192" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="191" priority="30" operator="notEqual">
+    <cfRule type="cellIs" dxfId="200" priority="30" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="190" priority="31">
+    <cfRule type="expression" dxfId="199" priority="31">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="189" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="188" priority="33" operator="notEqual">
+    <cfRule type="cellIs" dxfId="197" priority="33" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="187" priority="34">
+    <cfRule type="expression" dxfId="196" priority="34">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="186" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="185" priority="36" operator="notEqual">
+    <cfRule type="cellIs" dxfId="194" priority="36" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="184" priority="37">
+    <cfRule type="expression" dxfId="193" priority="37">
       <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="183" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="182" priority="39" operator="notEqual">
+    <cfRule type="cellIs" dxfId="191" priority="39" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="181" priority="40">
+    <cfRule type="expression" dxfId="190" priority="40">
       <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="180" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="179" priority="42" operator="notEqual">
+    <cfRule type="cellIs" dxfId="188" priority="42" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="178" priority="43">
+    <cfRule type="expression" dxfId="187" priority="43">
       <formula>LEN(TRIM(K12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="177" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="176" priority="45" operator="notEqual">
+    <cfRule type="cellIs" dxfId="185" priority="45" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="175" priority="46">
+    <cfRule type="expression" dxfId="184" priority="46">
       <formula>LEN(TRIM(K12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="174" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="173" priority="48" operator="notEqual">
+    <cfRule type="cellIs" dxfId="182" priority="48" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="172" priority="49">
+    <cfRule type="expression" dxfId="181" priority="49">
       <formula>LEN(TRIM(L10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="171" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="170" priority="51" operator="notEqual">
+    <cfRule type="cellIs" dxfId="179" priority="51" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="169" priority="52">
+    <cfRule type="expression" dxfId="178" priority="52">
       <formula>LEN(TRIM(L10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="168" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="167" priority="54" operator="notEqual">
+    <cfRule type="cellIs" dxfId="176" priority="54" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="166" priority="55">
+    <cfRule type="expression" dxfId="175" priority="55">
       <formula>LEN(TRIM(L11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="165" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="164" priority="57" operator="notEqual">
+    <cfRule type="cellIs" dxfId="173" priority="57" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="163" priority="58">
+    <cfRule type="expression" dxfId="172" priority="58">
       <formula>LEN(TRIM(L11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="162" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="161" priority="60" operator="notEqual">
+    <cfRule type="cellIs" dxfId="170" priority="60" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="160" priority="61">
+    <cfRule type="expression" dxfId="169" priority="61">
       <formula>LEN(TRIM(L12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="159" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="62" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="158" priority="63" operator="notEqual">
+    <cfRule type="cellIs" dxfId="167" priority="63" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="157" priority="64">
+    <cfRule type="expression" dxfId="166" priority="64">
       <formula>LEN(TRIM(L12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="156" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="155" priority="66" operator="notEqual">
+    <cfRule type="cellIs" dxfId="164" priority="66" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="154" priority="67">
+    <cfRule type="expression" dxfId="163" priority="67">
       <formula>LEN(TRIM(D10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="153" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="68" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="152" priority="69" operator="notEqual">
+    <cfRule type="cellIs" dxfId="161" priority="69" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="151" priority="70">
+    <cfRule type="expression" dxfId="160" priority="70">
       <formula>LEN(TRIM(D10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="150" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="71" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="149" priority="72" operator="notEqual">
+    <cfRule type="cellIs" dxfId="158" priority="72" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="148" priority="73">
+    <cfRule type="expression" dxfId="157" priority="73">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="147" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="146" priority="75" operator="notEqual">
+    <cfRule type="cellIs" dxfId="155" priority="75" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="145" priority="76">
+    <cfRule type="expression" dxfId="154" priority="76">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="144" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="77" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="143" priority="78" operator="notEqual">
+    <cfRule type="cellIs" dxfId="152" priority="78" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="142" priority="79">
+    <cfRule type="expression" dxfId="151" priority="79">
       <formula>LEN(TRIM(F10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="141" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="80" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="140" priority="81" operator="notEqual">
+    <cfRule type="cellIs" dxfId="149" priority="81" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="139" priority="82">
+    <cfRule type="expression" dxfId="148" priority="82">
       <formula>LEN(TRIM(F10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="138" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="137" priority="84" operator="notEqual">
+    <cfRule type="cellIs" dxfId="146" priority="84" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="136" priority="85">
+    <cfRule type="expression" dxfId="145" priority="85">
       <formula>LEN(TRIM(G10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="135" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="86" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="134" priority="87" operator="notEqual">
+    <cfRule type="cellIs" dxfId="143" priority="87" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="133" priority="88">
+    <cfRule type="expression" dxfId="142" priority="88">
       <formula>LEN(TRIM(G10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="132" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="89" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="131" priority="90" operator="notEqual">
+    <cfRule type="cellIs" dxfId="140" priority="90" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="130" priority="91">
+    <cfRule type="expression" dxfId="139" priority="91">
       <formula>LEN(TRIM(H10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="129" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="92" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="128" priority="93" operator="notEqual">
+    <cfRule type="cellIs" dxfId="137" priority="93" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="127" priority="94">
+    <cfRule type="expression" dxfId="136" priority="94">
       <formula>LEN(TRIM(H10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="126" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="95" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="125" priority="96" operator="notEqual">
+    <cfRule type="cellIs" dxfId="134" priority="96" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="124" priority="97">
+    <cfRule type="expression" dxfId="133" priority="97">
       <formula>LEN(TRIM(I10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="123" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="98" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="122" priority="99" operator="notEqual">
+    <cfRule type="cellIs" dxfId="131" priority="99" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="121" priority="100">
+    <cfRule type="expression" dxfId="130" priority="100">
       <formula>LEN(TRIM(I10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="120" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="101" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="119" priority="102" operator="notEqual">
+    <cfRule type="cellIs" dxfId="128" priority="102" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="118" priority="103">
+    <cfRule type="expression" dxfId="127" priority="103">
       <formula>LEN(TRIM(J10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="117" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="104" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="116" priority="105" operator="notEqual">
+    <cfRule type="cellIs" dxfId="125" priority="105" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="115" priority="106">
+    <cfRule type="expression" dxfId="124" priority="106">
       <formula>LEN(TRIM(J10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="114" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="107" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="113" priority="108" operator="notEqual">
+    <cfRule type="cellIs" dxfId="122" priority="108" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="112" priority="109">
+    <cfRule type="expression" dxfId="121" priority="109">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="111" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="110" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="110" priority="111" operator="notEqual">
+    <cfRule type="cellIs" dxfId="119" priority="111" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="109" priority="112">
+    <cfRule type="expression" dxfId="118" priority="112">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="108" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="113" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="107" priority="114" operator="notEqual">
+    <cfRule type="cellIs" dxfId="116" priority="114" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="106" priority="115">
+    <cfRule type="expression" dxfId="115" priority="115">
       <formula>LEN(TRIM(C12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="105" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="116" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="104" priority="117" operator="notEqual">
+    <cfRule type="cellIs" dxfId="113" priority="117" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="103" priority="118">
+    <cfRule type="expression" dxfId="112" priority="118">
       <formula>LEN(TRIM(C12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="102" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="119" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="101" priority="120" operator="notEqual">
+    <cfRule type="cellIs" dxfId="110" priority="120" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="100" priority="121">
+    <cfRule type="expression" dxfId="109" priority="121">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="99" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="122" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="98" priority="123" operator="notEqual">
+    <cfRule type="cellIs" dxfId="107" priority="123" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="97" priority="124">
+    <cfRule type="expression" dxfId="106" priority="124">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="96" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="125" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="95" priority="126" operator="notEqual">
+    <cfRule type="cellIs" dxfId="104" priority="126" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="94" priority="127">
+    <cfRule type="expression" dxfId="103" priority="127">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="93" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="128" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="92" priority="129" operator="notEqual">
+    <cfRule type="cellIs" dxfId="101" priority="129" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="91" priority="130">
+    <cfRule type="expression" dxfId="100" priority="130">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="90" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="131" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="89" priority="132" operator="notEqual">
+    <cfRule type="cellIs" dxfId="98" priority="132" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="88" priority="133">
+    <cfRule type="expression" dxfId="97" priority="133">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="87" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="134" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="86" priority="135" operator="notEqual">
+    <cfRule type="cellIs" dxfId="95" priority="135" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="85" priority="136">
+    <cfRule type="expression" dxfId="94" priority="136">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="84" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="137" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="83" priority="138" operator="notEqual">
+    <cfRule type="cellIs" dxfId="92" priority="138" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="82" priority="139">
+    <cfRule type="expression" dxfId="91" priority="139">
       <formula>LEN(TRIM(G11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="81" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="140" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="80" priority="141" operator="notEqual">
+    <cfRule type="cellIs" dxfId="89" priority="141" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="79" priority="142">
+    <cfRule type="expression" dxfId="88" priority="142">
       <formula>LEN(TRIM(G11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="78" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="143" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="77" priority="144" operator="notEqual">
+    <cfRule type="cellIs" dxfId="86" priority="144" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="76" priority="145">
+    <cfRule type="expression" dxfId="85" priority="145">
       <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="75" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="146" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="74" priority="147" operator="notEqual">
+    <cfRule type="cellIs" dxfId="83" priority="147" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="73" priority="148">
+    <cfRule type="expression" dxfId="82" priority="148">
       <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="72" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="149" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="71" priority="150" operator="notEqual">
+    <cfRule type="cellIs" dxfId="80" priority="150" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="70" priority="151">
+    <cfRule type="expression" dxfId="79" priority="151">
       <formula>LEN(TRIM(I11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="69" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="152" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="68" priority="153" operator="notEqual">
+    <cfRule type="cellIs" dxfId="77" priority="153" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="67" priority="154">
+    <cfRule type="expression" dxfId="76" priority="154">
       <formula>LEN(TRIM(I11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="66" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="155" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="65" priority="156" operator="notEqual">
+    <cfRule type="cellIs" dxfId="74" priority="156" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="64" priority="157">
+    <cfRule type="expression" dxfId="73" priority="157">
       <formula>LEN(TRIM(J11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="63" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="158" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="62" priority="159" operator="notEqual">
+    <cfRule type="cellIs" dxfId="71" priority="159" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="61" priority="160">
+    <cfRule type="expression" dxfId="70" priority="160">
       <formula>LEN(TRIM(J11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="60" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="161" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="59" priority="162" operator="notEqual">
+    <cfRule type="cellIs" dxfId="68" priority="162" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="58" priority="163">
+    <cfRule type="expression" dxfId="67" priority="163">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="57" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="164" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="56" priority="165" operator="notEqual">
+    <cfRule type="cellIs" dxfId="65" priority="165" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="55" priority="166">
+    <cfRule type="expression" dxfId="64" priority="166">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="54" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="167" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="53" priority="168" operator="notEqual">
+    <cfRule type="cellIs" dxfId="62" priority="168" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="52" priority="169">
+    <cfRule type="expression" dxfId="61" priority="169">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="51" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="170" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="50" priority="171" operator="notEqual">
+    <cfRule type="cellIs" dxfId="59" priority="171" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="49" priority="172">
+    <cfRule type="expression" dxfId="58" priority="172">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="48" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="173" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="47" priority="174" operator="notEqual">
+    <cfRule type="cellIs" dxfId="56" priority="174" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="46" priority="175">
+    <cfRule type="expression" dxfId="55" priority="175">
       <formula>LEN(TRIM(F12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="45" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="176" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="44" priority="177" operator="notEqual">
+    <cfRule type="cellIs" dxfId="53" priority="177" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="43" priority="178">
+    <cfRule type="expression" dxfId="52" priority="178">
       <formula>LEN(TRIM(F12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="42" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="179" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="41" priority="180" operator="notEqual">
+    <cfRule type="cellIs" dxfId="50" priority="180" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="40" priority="181">
+    <cfRule type="expression" dxfId="49" priority="181">
       <formula>LEN(TRIM(G12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="39" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="182" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="38" priority="183" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="183" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="37" priority="184">
+    <cfRule type="expression" dxfId="46" priority="184">
       <formula>LEN(TRIM(G12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="36" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="185" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="35" priority="186" operator="notEqual">
+    <cfRule type="cellIs" dxfId="44" priority="186" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="34" priority="187">
+    <cfRule type="expression" dxfId="43" priority="187">
       <formula>LEN(TRIM(H12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="33" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="188" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="32" priority="189" operator="notEqual">
+    <cfRule type="cellIs" dxfId="41" priority="189" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="31" priority="190">
+    <cfRule type="expression" dxfId="40" priority="190">
       <formula>LEN(TRIM(H12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="30" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="191" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="29" priority="192" operator="notEqual">
+    <cfRule type="cellIs" dxfId="38" priority="192" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="28" priority="193">
+    <cfRule type="expression" dxfId="37" priority="193">
       <formula>LEN(TRIM(I12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="27" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="194" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="26" priority="195" operator="notEqual">
+    <cfRule type="cellIs" dxfId="35" priority="195" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="25" priority="196">
+    <cfRule type="expression" dxfId="34" priority="196">
       <formula>LEN(TRIM(I12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="24" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="197" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="23" priority="198" operator="notEqual">
+    <cfRule type="cellIs" dxfId="32" priority="198" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="22" priority="199">
+    <cfRule type="expression" dxfId="31" priority="199">
       <formula>LEN(TRIM(J12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="21" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="200" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="20" priority="201" operator="notEqual">
+    <cfRule type="cellIs" dxfId="29" priority="201" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="19" priority="202">
+    <cfRule type="expression" dxfId="28" priority="202">
       <formula>LEN(TRIM(J12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="18" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="203" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="17" priority="204" operator="notEqual">
+    <cfRule type="cellIs" dxfId="26" priority="204" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8704,7 +8923,7 @@
   <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
@@ -8719,20 +8938,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -8791,40 +9010,40 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
+      <c r="A3" s="52">
         <v>8</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="I3" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="J3" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="53" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="8"/>
@@ -8836,18 +9055,18 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -8995,18 +9214,18 @@
       <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
+      <c r="C8" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -9072,10 +9291,10 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14">
         <v>2</v>
@@ -9097,18 +9316,18 @@
         <v>0.5</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14">
@@ -9130,18 +9349,18 @@
         <v>0.75</v>
       </c>
       <c r="M11" s="8"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="42"/>
+      <c r="A12" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="60"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -9161,18 +9380,18 @@
         <v>0.3125</v>
       </c>
       <c r="M12" s="8"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="44"/>
+      <c r="A13" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="57"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -9194,8 +9413,8 @@
         <v>0.4375</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
@@ -9207,6 +9426,13 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="N13:O13"/>
@@ -9223,44 +9449,37 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N12:O12"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L96">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:L96">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:L96">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B96">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="22" priority="5">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B96">
-    <cfRule type="notContainsText" dxfId="12" priority="6" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="21" priority="6" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:O13">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="20" priority="7">
       <formula>LEN(TRIM(N10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:O13">
-    <cfRule type="notContainsText" dxfId="10" priority="8" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="19" priority="8" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -9273,11 +9492,11 @@
   <sheetPr>
     <tabColor rgb="FFA4C2F4"/>
   </sheetPr>
-  <dimension ref="A1:S1048576"/>
+  <dimension ref="A1:S1048574"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:B11"/>
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9291,20 +9510,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -9363,40 +9582,40 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
+      <c r="A3" s="52">
         <v>8</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="I3" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="J3" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="53" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="8"/>
@@ -9408,18 +9627,18 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -9497,39 +9716,39 @@
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>10.65</v>
+        <v>11</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>9.65</v>
+        <v>10.55</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>5.95</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>4.6500000000000004</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>4.2</v>
+        <v>3.0500000000000007</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>3.9000000000000004</v>
+        <v>1.0500000000000007</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>3.1000000000000005</v>
+        <v>-0.94999999999999929</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>53.6</v>
+        <v>50.299999999999983</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>6.7</v>
+        <v>6.2874999999999979</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -9567,18 +9786,18 @@
       <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
+      <c r="C8" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -9596,44 +9815,44 @@
         <v>1.4375</v>
       </c>
       <c r="C9" s="17">
-        <f t="shared" ref="C9:L9" si="3">SUM(C10:C30)</f>
+        <f t="shared" ref="C9:L9" si="3">SUM(C10:C28)</f>
         <v>0</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="3"/>
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="3"/>
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="3"/>
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="3"/>
-        <v>0.45</v>
+        <v>2</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="3"/>
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" si="3"/>
-        <v>8.4</v>
+        <v>12.45</v>
       </c>
       <c r="L9" s="17">
         <f t="shared" si="3"/>
-        <v>1.05</v>
+        <v>1.5562499999999999</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -9644,29 +9863,27 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="24"/>
+      <c r="A10" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="14">
-        <v>3.7</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14">
-        <v>0.45</v>
-      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14">
+        <v>2</v>
+      </c>
+      <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14">
         <f>SUM(C10:J10)</f>
-        <v>4.1500000000000004</v>
+        <v>2</v>
       </c>
       <c r="L10" s="14">
         <f>K10/A$3</f>
-        <v>0.51875000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -9677,13 +9894,13 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="38"/>
+      <c r="A11" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="60"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -9693,11 +9910,11 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14">
         <f>SUM(C11:J11)</f>
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="L11" s="14">
         <f>K11/A$3</f>
-        <v>0.10625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -9708,14 +9925,14 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="38"/>
+      <c r="A12" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="60"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -9724,11 +9941,11 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14">
         <f>SUM(C12:J12)</f>
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="L12" s="14">
         <f>K12/A$3</f>
-        <v>0.125</v>
+        <v>5.6250000000000001E-2</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -9739,31 +9956,27 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="45"/>
+      <c r="A13" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="57"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14">
-        <v>1.3</v>
-      </c>
+      <c r="F13" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="J13" s="14">
-        <v>0.8</v>
-      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="14">
         <f>SUM(C13:J13)</f>
-        <v>2.4000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="L13" s="14">
         <f>K13/A$3</f>
-        <v>0.30000000000000004</v>
+        <v>0.1875</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
@@ -9774,14 +9987,116 @@
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J14" s="26"/>
+      <c r="A14" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="58"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14">
+        <v>2</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14">
+        <f>SUM(C14:J14)</f>
+        <v>2</v>
+      </c>
+      <c r="L14" s="14">
+        <f>K14/A$3</f>
+        <v>0.25</v>
+      </c>
     </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14">
+        <v>2</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14">
+        <f>SUM(C15:J15)</f>
+        <v>2</v>
+      </c>
+      <c r="L15" s="14">
+        <f>K15/A$3</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="60"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14">
+        <v>2</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14">
+        <f>SUM(C16:J16)</f>
+        <v>2</v>
+      </c>
+      <c r="L16" s="14">
+        <f>K16/A$3</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14">
+        <v>2</v>
+      </c>
+      <c r="K17" s="14">
+        <f>SUM(C17:J17)</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="14">
+        <f>K17/A$3</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="23">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -9796,34 +10111,42 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
-  <conditionalFormatting sqref="C10:L96">
-    <cfRule type="expression" dxfId="9" priority="2">
-      <formula>LEN(TRIM(C10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:L96">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:L96">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B96">
-    <cfRule type="expression" dxfId="6" priority="5">
+  <conditionalFormatting sqref="A10:L13 A18:L94">
+    <cfRule type="expression" dxfId="18" priority="10">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B96">
-    <cfRule type="notContainsText" dxfId="5" priority="6" operator="notContains" text="9875894754())("/>
+  <conditionalFormatting sqref="C10:L13 C28:L94 C23:F27 H23:L27 C18:L22">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:L13 C28:L94 C23:F27 H23:L27 C18:L22">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:B13 A18:B94 G23:G27">
+    <cfRule type="notContainsText" dxfId="15" priority="14" operator="notContains" text="9875894754())("/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:L17">
+    <cfRule type="expression" dxfId="14" priority="5">
+      <formula>LEN(TRIM(A14))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:L17">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:L17">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:B17">
+    <cfRule type="notContainsText" dxfId="11" priority="8" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -9854,20 +10177,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -9926,40 +10249,40 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
+      <c r="A3" s="52">
         <v>8</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="I3" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="J3" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="53" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="8"/>
@@ -9971,18 +10294,18 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -10131,18 +10454,18 @@
       <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
+      <c r="C8" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -10208,8 +10531,8 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -10235,8 +10558,8 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -10262,8 +10585,8 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -10289,8 +10612,8 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -10321,6 +10644,11 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -10335,11 +10663,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L96">
     <cfRule type="expression" dxfId="4" priority="2">
